--- a/manual test/Manual testing.xlsx
+++ b/manual test/Manual testing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manual testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pushGit\dank-7\manual test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="system test" sheetId="2" r:id="rId1"/>
@@ -22,16 +22,16 @@
     <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IntergrationTest!$A$1:$I$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IntergrationTest!$A$1:$I$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'system test'!$A$1:$I$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'unit test'!$A$1:$I$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'unit test'!$A$1:$I$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="315">
   <si>
     <t>TestCase#</t>
   </si>
@@ -538,9 +538,6 @@
     <t>Nguyễn Văn A</t>
   </si>
   <si>
-    <t>Thông tin khách hàng</t>
-  </si>
-  <si>
     <t>website cho đặt hàng</t>
   </si>
   <si>
@@ -563,9 +560,6 @@
   </si>
   <si>
     <t>khi không chọn sản phẩm trang website không cho đặt hàng</t>
-  </si>
-  <si>
-    <t>Giỏ hàng</t>
   </si>
   <si>
     <t>Chi tiết sản phẩm</t>
@@ -631,22 +625,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Mua sản phẩm</t>
-  </si>
-  <si>
-    <t>mua sản phẩm với số lượng hợp lệ</t>
-  </si>
-  <si>
     <t>MSP1</t>
   </si>
   <si>
-    <t>1,2,3,4,5….</t>
-  </si>
-  <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>Mua sản phẩm với một số lượng âm</t>
   </si>
   <si>
     <t>No</t>
@@ -656,9 +638,6 @@
   </si>
   <si>
     <t>Không hiện message thông báo</t>
-  </si>
-  <si>
-    <t>Mua sản phẩm với một số lượng vượt mức</t>
   </si>
   <si>
     <t>Một message hiện lên "Số lượng tồn kho không đủ hoặc số lượng không hợp lệ" và không thêm vào giỏ hàng</t>
@@ -700,9 +679,6 @@
     <t>Giỏ hàng phải có ít nhất 1 sp</t>
   </si>
   <si>
-    <t>Giỏ hàng có 1 sp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thêm bất kỳ sản phẩm vào giỏ hàng </t>
   </si>
   <si>
@@ -719,18 +695,6 @@
   </si>
   <si>
     <t>Có thể đặt hàng</t>
-  </si>
-  <si>
-    <t>số lượng sản không thể là số âm</t>
-  </si>
-  <si>
-    <t>Nhập số lượng sản phẩm là số âm</t>
-  </si>
-  <si>
-    <t>Số lượng sản phẩm không thể bé hơn 1</t>
-  </si>
-  <si>
-    <t>Không thể nhập giá trị âm</t>
   </si>
   <si>
     <t>Tên hợp lệ</t>
@@ -817,15 +781,6 @@
     <t>GH5</t>
   </si>
   <si>
-    <t>GH6</t>
-  </si>
-  <si>
-    <t>GH7</t>
-  </si>
-  <si>
-    <t>GH8</t>
-  </si>
-  <si>
     <t>TT1</t>
   </si>
   <si>
@@ -901,42 +856,211 @@
     <t>TT10</t>
   </si>
   <si>
-    <t>1. Truy cập vào web site của hàng
-2. Click vào ô tìm kiếm
-3. Nhập sản phẩm cần tìm
-4. Xem chi tiết sản phẩm đó
-5. Chọn size sản phẩm
-6. Click thêm sản phẩm vào giỏ hàng
-7.Chọn số lượng muốn mua
-8. Thêm thông tin khách hàng (địa chỉ , thông tin liên lạc)
-9. CLick đặt hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm kiếm sản phẩm và đặt hàng </t>
-  </si>
-  <si>
     <t xml:space="preserve">Đặt hàng thành công </t>
   </si>
   <si>
-    <t>Phân công Manual testing</t>
+    <t>Nguyễn Bá Nhân</t>
   </si>
   <si>
-    <t>unit test</t>
+    <t>Nguyễn Huỳnh Mỹ Hân</t>
   </si>
   <si>
-    <t>intergration test</t>
+    <t>Nguyễn Hữu Phú</t>
   </si>
   <si>
-    <t>system test</t>
+    <t>Manual test</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Huỳnh mỹ hân </t>
+    <t>API</t>
   </si>
   <si>
-    <t>Nguyễn hữu phú</t>
+    <t>jmeter</t>
   </si>
   <si>
-    <t>Nguyễn Bá Nhân</t>
+    <t>Unit test:
+Tìm kiếm sản phẩm
+Bình Luận
+Giỏ hàng
+Thanh toán
+Chi tiết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integration: 
+Mua sản phẩm
+</t>
+  </si>
+  <si>
+    <t>chức năng :
++ thêm sản phẩm mới
++ hiển thị danh sách sản phảm
++ hiển thị chi tiết sp
++ thêm order
++ xem danh sách orders
++ xem chi tiết order với id
++ xóa một order</t>
+  </si>
+  <si>
+    <t>chức năng : 
++ tìm kiếm SP
++ Mua sản phẩm</t>
+  </si>
+  <si>
+    <t>Test hiệu năng : 100 user, 1000 user và 10000 user</t>
+  </si>
+  <si>
+    <t>Phân công công việc</t>
+  </si>
+  <si>
+    <t>system : Mua sản phẩm</t>
+  </si>
+  <si>
+    <t>Thêm Giỏ hàng có 1 sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lọc sản phẩm </t>
+  </si>
+  <si>
+    <t>1. Truy cập vào trang web
+2.Chọn mục đồng hồ phía dưới header
+3. Chọn thương hiệu là gucci</t>
+  </si>
+  <si>
+    <t>Lọc sản phẩm là đồng hồ gucci</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sản phẩm liên quan đến đồng hồ gucci</t>
+  </si>
+  <si>
+    <t>1. Truy cập vào trang web
+2. Chọn mục trang sức cưới dưới phần header
+3. Click vào loại sản phẩm là nhẫn</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sản phẩm liên quan nhẫn cưới</t>
+  </si>
+  <si>
+    <t>lọc các sản phẩm nhẫn danh mục trang sức cưới</t>
+  </si>
+  <si>
+    <t>Chọn số lượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> số lượng hợp lệ</t>
+  </si>
+  <si>
+    <t>imột số lượng âm</t>
+  </si>
+  <si>
+    <t>một số lượng vượt mức</t>
+  </si>
+  <si>
+    <t>đặt hàng</t>
+  </si>
+  <si>
+    <t>Đặt hàng với from chứa đầy đủ các thông tin cần thiết</t>
+  </si>
+  <si>
+    <t>1. truy cập vào trang web 
+2. Thêm một sp bất kỳ vào giỏ hàng 
+3. Tại giỏ hàng điền đầy đủ thông tin cần thiết
+4. Chọn đặt hàng</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>hiện thông báo Đặt hàng thành công , đơn hàng đang được xử lý</t>
+  </si>
+  <si>
+    <t>Đặt hàng với from chưa được hoàn thành</t>
+  </si>
+  <si>
+    <t>1. truy cập vào trang web 
+2. Thêm một sp bất kỳ vào giỏ hàng 
+3. Tại giỏ hàng from thông tin người nua để trống
+4. Chọn đặt hàng</t>
+  </si>
+  <si>
+    <t>Thông báo yêu cầu  nhập đầy đủ các thông tin để được đặt hàng</t>
+  </si>
+  <si>
+    <t>Thông báo yêu cầu nhập đầy đủ các thông tin để được đặt hàng</t>
+  </si>
+  <si>
+    <t>giới tính:"nam:
+họ tên : "nguyễ n bá nhân"
+email :"nguyenbanhan50@gmail.com"
+ngày sinh : "30-03-2002
+Tinth :"thành phố hồ chí minh"
+huyện : "quận tân phú
+phường : phú thạnh</t>
+  </si>
+  <si>
+    <t>đặt hàng và thanh toán</t>
+  </si>
+  <si>
+    <t>1. Truy cập vào web site của hàng
+2. Chọn 1 sản phẩm bất kỳ
+3. Click thêm sản phẩm vào giỏ hàng
+4.Chọn số lượng muốn mua
+5. Thêm thông tin khách hàng (địa chỉ , thông tin liên lạc)
+6. CLick đặt hàng</t>
+  </si>
+  <si>
+    <t>Lọc sản phẩm</t>
+  </si>
+  <si>
+    <t>lọc sản phẩm theo danh mục</t>
+  </si>
+  <si>
+    <t>1) Vào URL trang web
+2) Nhấn vào loại sản phẩm bất kỳ
+3) Nhấn vào loại sản phẩm ở bộ lộc bên dưới
+4) Chọn loại muốn lọc</t>
+  </si>
+  <si>
+    <t>hiển thị danh sách sp được lọc theo yêu cầu</t>
+  </si>
+  <si>
+    <t>TÌm kiếm</t>
+  </si>
+  <si>
+    <t>tìm kiếm theo tên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. truy cập vào trang web
+2. nhập vào ô tìm kiếm sản phẩm (nhẫn vàng)
+3. click tìm kiếm
+</t>
+  </si>
+  <si>
+    <t>"nhẫn vàng"</t>
+  </si>
+  <si>
+    <t>hiển thị danh sách sản phẩm liên quan</t>
+  </si>
+  <si>
+    <t>bình luận sp</t>
+  </si>
+  <si>
+    <t>Bình luận về sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 . Truy cập vào cửa hàng
+2. chọn một sản phẩm bất kỳ
+3. tại trang chi tiết sản phẩm chọn mục bình luận
+4.chọn viết bình luận
+5 . Điền tên, số sao, nội dung bình luận
+6. Nhấn gửi
+</t>
+  </si>
+  <si>
+    <t>Tên : "Nguyễn bá nhân"
+số sao : 5sao
+nội dung bình luận : "đây là bình luận"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thông báo bình luận sản phẩm thành công và hiển thị bình luận </t>
   </si>
 </sst>
 </file>
@@ -946,7 +1070,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -980,12 +1104,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF434343"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1075,8 +1193,27 @@
       <color theme="2" tint="-0.749992370372631"/>
       <name val="Droid Sans"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF434343"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Droid Sans"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1176,17 +1313,41 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor rgb="FFECC9E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1611,13 +1772,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1651,200 +1834,200 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,7 +2069,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1898,13 +2081,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,7 +2099,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1927,6 +2107,137 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="13" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1946,129 +2257,42 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2206,6 +2430,163 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>515120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3278415</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1667895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12126095" y="10096500"/>
+          <a:ext cx="2763295" cy="1553595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>636902</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3104030</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1555171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12257402" y="11889441"/>
+          <a:ext cx="2467128" cy="1387083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>225341</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3314692</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1804146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11845841" y="13256558"/>
+          <a:ext cx="3089351" cy="1736912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>201691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3374574</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2017059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11766177" y="15239985"/>
+          <a:ext cx="3228897" cy="1815368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2489,13 +2870,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3335618</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1809750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2527,13 +2908,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3265116</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>2286002</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2565,13 +2946,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>27216</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>394607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3347358</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1905000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2603,13 +2984,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3305768</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>2707821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2641,13 +3022,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>204108</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3116036</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>2136322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2793,13 +3174,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3321326</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1819224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2831,13 +3212,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>91109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3313043</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1910333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2869,14 +3250,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>911086</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3288196</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1530215</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2907,13 +3288,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3288197</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1530214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2945,13 +3326,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1598543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3346174</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2983,13 +3364,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1482587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3354456</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1503986</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3021,13 +3402,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3296477</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1499153</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3059,13 +3440,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>46382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3346173</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>381875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3211,13 +3592,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3352801</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3249,13 +3630,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3324225</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3287,13 +3668,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3286125</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1143154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3325,13 +3706,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3305176</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1400175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3363,13 +3744,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3305175</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1285875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3401,13 +3782,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3295651</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1323975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3740,9 +4121,9 @@
   </sheetPr>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -3751,7 +4132,8 @@
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="6" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="23" width="17.28515625" customWidth="1"/>
   </cols>
@@ -3799,30 +4181,30 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" ht="127.5">
+    <row r="2" spans="1:23" ht="89.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -3867,16 +4249,30 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="63.75">
       <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3917,16 +4313,32 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" ht="63.75">
       <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I6" s="168" t="s">
+        <v>103</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3992,16 +4404,32 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" ht="102">
       <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -6320,6 +6748,7 @@
   </sheetData>
   <autoFilter ref="A1:I29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6328,11 +6757,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W101"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -6341,9 +6770,12 @@
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="6" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="23" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="52" customWidth="1"/>
+    <col min="10" max="23" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
@@ -6390,31 +6822,31 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="76.5">
-      <c r="A2" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="166" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="148" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="165" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="165">
+        <v>1</v>
+      </c>
+      <c r="F2" s="165" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="165" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="81" t="s">
+      <c r="H2" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="85" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="1"/>
@@ -6433,29 +6865,29 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="76.5">
-      <c r="A3" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="83"/>
+      <c r="A3" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="149"/>
       <c r="C3" s="92" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E3" s="85">
         <v>-3</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G3" s="85" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H3" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="167" t="s">
         <v>118</v>
       </c>
       <c r="J3" s="4"/>
@@ -6474,29 +6906,29 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="76.5">
-      <c r="A4" s="82" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="92" t="s">
+      <c r="A4" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="85">
+      <c r="B4" s="150"/>
+      <c r="C4" s="163" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="142" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="142">
         <v>9999999</v>
       </c>
-      <c r="F4" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="85" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="I4" s="83" t="s">
+      <c r="F4" s="142" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="142" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="164" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="143" t="s">
         <v>103</v>
       </c>
       <c r="J4" s="4"/>
@@ -6514,130 +6946,178 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
+    <row r="5" spans="1:23" s="79" customFormat="1" ht="137.25" customHeight="1">
+      <c r="A5" s="87"/>
+      <c r="B5" s="151" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="I5" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+    </row>
+    <row r="6" spans="1:23" s="79" customFormat="1" ht="128.25" customHeight="1">
+      <c r="A6" s="87"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+    </row>
+    <row r="7" spans="1:23" s="79" customFormat="1" ht="145.5" customHeight="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="151" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="I7" s="87"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+    </row>
+    <row r="8" spans="1:23" s="79" customFormat="1" ht="177.75" customHeight="1">
+      <c r="A8" s="87"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="87" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" s="84"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+    </row>
+    <row r="9" spans="1:23" s="79" customFormat="1">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="6"/>
@@ -6673,7 +7153,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -6698,7 +7178,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -6773,7 +7253,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -6823,7 +7303,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -6848,7 +7328,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -6973,7 +7453,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -6998,7 +7478,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -7023,7 +7503,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -7048,7 +7528,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -7098,7 +7578,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -7123,7 +7603,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -7165,79 +7645,79 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="6"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="6"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="7"/>
@@ -8864,84 +9344,16 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23">
-      <c r="A99" s="7"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-    </row>
-    <row r="100" spans="1:23">
-      <c r="A100" s="7"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-    </row>
-    <row r="101" spans="1:23">
-      <c r="A101" s="7"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I29"/>
+  <autoFilter ref="A1:I26"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8950,11 +9362,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W97"/>
+  <dimension ref="A1:W94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -9020,7 +9432,7 @@
       <c r="A2" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="148" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="86" t="s">
@@ -9061,7 +9473,7 @@
       <c r="A3" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="105"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="88" t="s">
         <v>98</v>
       </c>
@@ -9100,7 +9512,7 @@
       <c r="A4" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="88" t="s">
         <v>105</v>
       </c>
@@ -9139,7 +9551,7 @@
       <c r="A5" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="151" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -9176,14 +9588,14 @@
       <c r="A6" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="108"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="88" t="s">
         <v>113</v>
       </c>
       <c r="D6" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="95" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="88"/>
@@ -9215,7 +9627,7 @@
       <c r="A7" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="108"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="88" t="s">
         <v>120</v>
       </c>
@@ -9254,7 +9666,7 @@
       <c r="A8" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="108"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="85" t="s">
         <v>124</v>
       </c>
@@ -9271,7 +9683,7 @@
       <c r="H8" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="I8" s="97" t="s">
+      <c r="I8" s="96" t="s">
         <v>118</v>
       </c>
       <c r="J8" s="83"/>
@@ -9293,7 +9705,7 @@
       <c r="A9" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="108"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="88" t="s">
         <v>130</v>
       </c>
@@ -9330,7 +9742,7 @@
       <c r="A10" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="108"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="88" t="s">
         <v>134</v>
       </c>
@@ -9367,7 +9779,7 @@
       <c r="A11" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="109"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="88" t="s">
         <v>138</v>
       </c>
@@ -9404,28 +9816,26 @@
     </row>
     <row r="12" spans="1:23" ht="46.5" customHeight="1" thickBot="1">
       <c r="A12" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="98">
+        <v>233</v>
+      </c>
+      <c r="B12" s="144"/>
+      <c r="C12" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="97">
         <v>0</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="H12" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="I12" s="99" t="s">
+      <c r="F12" s="97"/>
+      <c r="G12" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="98" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="83"/>
@@ -9445,26 +9855,26 @@
     </row>
     <row r="13" spans="1:23" ht="157.5" customHeight="1" thickBot="1">
       <c r="A13" s="87" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="H13" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="145"/>
+      <c r="C13" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="98" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="83"/>
@@ -9484,26 +9894,26 @@
     </row>
     <row r="14" spans="1:23" ht="26.25" thickBot="1">
       <c r="A14" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="98" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="98" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="98">
+        <v>235</v>
+      </c>
+      <c r="B14" s="145"/>
+      <c r="C14" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="97">
         <v>0</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98" t="s">
-        <v>214</v>
-      </c>
-      <c r="H14" s="98" t="s">
-        <v>214</v>
-      </c>
-      <c r="I14" s="99" t="s">
+      <c r="F14" s="97"/>
+      <c r="G14" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="98" t="s">
         <v>11</v>
       </c>
       <c r="J14" s="83"/>
@@ -9523,26 +9933,26 @@
     </row>
     <row r="15" spans="1:23" ht="131.25" customHeight="1" thickBot="1">
       <c r="A15" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="98" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="98" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="145"/>
+      <c r="C15" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="I15" s="99" t="s">
+      <c r="D15" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="98" t="s">
         <v>11</v>
       </c>
       <c r="J15" s="83"/>
@@ -9560,18 +9970,30 @@
       <c r="V15" s="83"/>
       <c r="W15" s="83"/>
     </row>
-    <row r="16" spans="1:23" ht="13.5" thickBot="1">
+    <row r="16" spans="1:23" ht="159" customHeight="1" thickBot="1">
       <c r="A16" s="87" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="99"/>
+        <v>237</v>
+      </c>
+      <c r="B16" s="145"/>
+      <c r="C16" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="98" t="s">
+        <v>11</v>
+      </c>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
       <c r="L16" s="83"/>
@@ -9587,18 +10009,30 @@
       <c r="V16" s="83"/>
       <c r="W16" s="83"/>
     </row>
-    <row r="17" spans="1:23" ht="13.5" thickBot="1">
+    <row r="17" spans="1:23" ht="120.75" customHeight="1" thickBot="1">
       <c r="A17" s="87" t="s">
-        <v>250</v>
-      </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="99"/>
+        <v>238</v>
+      </c>
+      <c r="B17" s="145"/>
+      <c r="C17" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="98" t="s">
+        <v>211</v>
+      </c>
+      <c r="I17" s="98" t="s">
+        <v>11</v>
+      </c>
       <c r="J17" s="83"/>
       <c r="K17" s="83"/>
       <c r="L17" s="83"/>
@@ -9614,29 +10048,29 @@
       <c r="V17" s="83"/>
       <c r="W17" s="83"/>
     </row>
-    <row r="18" spans="1:23" ht="147" customHeight="1" thickBot="1">
+    <row r="18" spans="1:23" ht="126.75" customHeight="1" thickBot="1">
       <c r="A18" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="99" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="99" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="99">
-        <v>0</v>
-      </c>
-      <c r="F18" s="99"/>
+        <v>239</v>
+      </c>
+      <c r="B18" s="145"/>
+      <c r="C18" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="98"/>
       <c r="G18" s="98" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="H18" s="98" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I18" s="99" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="J18" s="83"/>
       <c r="K18" s="83"/>
@@ -9653,29 +10087,29 @@
       <c r="V18" s="83"/>
       <c r="W18" s="83"/>
     </row>
-    <row r="19" spans="1:23" ht="159" customHeight="1" thickBot="1">
+    <row r="19" spans="1:23" ht="120" customHeight="1" thickBot="1">
       <c r="A19" s="87" t="s">
-        <v>252</v>
-      </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99" t="s">
-        <v>163</v>
+        <v>240</v>
+      </c>
+      <c r="B19" s="94"/>
+      <c r="C19" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="98" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98" t="s">
+        <v>156</v>
       </c>
       <c r="H19" s="98" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="I19" s="99" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="J19" s="83"/>
       <c r="K19" s="83"/>
@@ -9692,30 +10126,28 @@
       <c r="V19" s="83"/>
       <c r="W19" s="83"/>
     </row>
-    <row r="20" spans="1:23" ht="120.75" customHeight="1" thickBot="1">
+    <row r="20" spans="1:23" ht="122.25" customHeight="1" thickBot="1">
       <c r="A20" s="87" t="s">
-        <v>253</v>
-      </c>
-      <c r="B20" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="99" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="I20" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="94"/>
+      <c r="C20" s="98" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="98" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="98" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="83"/>
@@ -9733,28 +10165,28 @@
       <c r="V20" s="83"/>
       <c r="W20" s="83"/>
     </row>
-    <row r="21" spans="1:23" ht="126.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:23" ht="121.5" customHeight="1" thickBot="1">
       <c r="A21" s="87" t="s">
-        <v>254</v>
-      </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="E21" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="H21" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="I21" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="98" t="s">
         <v>118</v>
       </c>
       <c r="J21" s="83"/>
@@ -9772,29 +10204,29 @@
       <c r="V21" s="83"/>
       <c r="W21" s="83"/>
     </row>
-    <row r="22" spans="1:23" ht="120" customHeight="1" thickBot="1">
+    <row r="22" spans="1:23" ht="110.25" customHeight="1" thickBot="1">
       <c r="A22" s="87" t="s">
-        <v>255</v>
-      </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="E22" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" s="99" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="94"/>
+      <c r="C22" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="98">
+        <v>1234576789</v>
+      </c>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="I22" s="100" t="s">
-        <v>118</v>
+      <c r="H22" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22" s="98" t="s">
+        <v>11</v>
       </c>
       <c r="J22" s="83"/>
       <c r="K22" s="83"/>
@@ -9811,30 +10243,28 @@
       <c r="V22" s="83"/>
       <c r="W22" s="83"/>
     </row>
-    <row r="23" spans="1:23" ht="122.25" customHeight="1" thickBot="1">
+    <row r="23" spans="1:23" ht="40.5" customHeight="1" thickBot="1">
       <c r="A23" s="87" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="94"/>
+      <c r="C23" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="E23" s="101" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99" t="s">
+      <c r="E23" s="98">
+        <v>123</v>
+      </c>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="H23" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" s="99" t="s">
-        <v>11</v>
-      </c>
+      <c r="H23" s="98" t="s">
+        <v>232</v>
+      </c>
+      <c r="I23" s="98"/>
       <c r="J23" s="83"/>
       <c r="K23" s="83"/>
       <c r="L23" s="83"/>
@@ -9850,29 +10280,29 @@
       <c r="V23" s="83"/>
       <c r="W23" s="83"/>
     </row>
-    <row r="24" spans="1:23" ht="121.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:23" ht="61.5" customHeight="1" thickBot="1">
       <c r="A24" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="D24" s="99" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="101" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="I24" s="99" t="s">
-        <v>118</v>
+        <v>260</v>
+      </c>
+      <c r="B24" s="147"/>
+      <c r="C24" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="98" t="s">
+        <v>11</v>
       </c>
       <c r="J24" s="83"/>
       <c r="K24" s="83"/>
@@ -9889,28 +10319,28 @@
       <c r="V24" s="83"/>
       <c r="W24" s="83"/>
     </row>
-    <row r="25" spans="1:23" ht="110.25" customHeight="1" thickBot="1">
+    <row r="25" spans="1:23" ht="93" customHeight="1" thickBot="1">
       <c r="A25" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="99" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="99">
-        <v>1234576789</v>
-      </c>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99" t="s">
-        <v>237</v>
-      </c>
-      <c r="H25" s="99" t="s">
-        <v>237</v>
-      </c>
-      <c r="I25" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="147"/>
+      <c r="C25" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="101">
+        <v>36526</v>
+      </c>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" s="102" t="s">
         <v>11</v>
       </c>
       <c r="J25" s="83"/>
@@ -9928,28 +10358,32 @@
       <c r="V25" s="83"/>
       <c r="W25" s="83"/>
     </row>
-    <row r="26" spans="1:23" ht="40.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:23" ht="111.75" customHeight="1" thickBot="1">
       <c r="A26" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="99" t="s">
-        <v>242</v>
-      </c>
-      <c r="D26" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="99">
-        <v>123</v>
-      </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99" t="s">
-        <v>244</v>
-      </c>
-      <c r="H26" s="99" t="s">
-        <v>244</v>
-      </c>
-      <c r="I26" s="99"/>
+        <v>262</v>
+      </c>
+      <c r="B26" s="147" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="98">
+        <v>20</v>
+      </c>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="99" t="s">
+        <v>118</v>
+      </c>
       <c r="J26" s="83"/>
       <c r="K26" s="83"/>
       <c r="L26" s="83"/>
@@ -9965,28 +10399,26 @@
       <c r="V26" s="83"/>
       <c r="W26" s="83"/>
     </row>
-    <row r="27" spans="1:23" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A27" s="87" t="s">
-        <v>275</v>
-      </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="E27" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="I27" s="99" t="s">
+    <row r="27" spans="1:23" ht="104.25" customHeight="1" thickBot="1">
+      <c r="A27" s="87"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="H27" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="I27" s="98" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="83"/>
@@ -10004,146 +10436,144 @@
       <c r="V27" s="83"/>
       <c r="W27" s="83"/>
     </row>
-    <row r="28" spans="1:23" ht="93" customHeight="1" thickBot="1">
-      <c r="A28" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="99" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="102">
-        <v>36526</v>
-      </c>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="I28" s="103" t="s">
+    <row r="28" spans="1:23" ht="109.5" customHeight="1" thickBot="1">
+      <c r="A28" s="85"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="98" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="98">
+        <v>0</v>
+      </c>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="I28" s="98" t="s">
         <v>11</v>
       </c>
       <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-    </row>
-    <row r="29" spans="1:23" ht="111.75" customHeight="1" thickBot="1">
-      <c r="A29" s="87" t="s">
-        <v>277</v>
-      </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="99" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="99" t="s">
-        <v>241</v>
-      </c>
-      <c r="E29" s="99">
-        <v>20</v>
-      </c>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="I29" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-    </row>
-    <row r="30" spans="1:23" ht="104.25" customHeight="1" thickBot="1">
-      <c r="A30" s="87"/>
-      <c r="B30" s="114" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="D30" s="99" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99" t="s">
-        <v>268</v>
-      </c>
-      <c r="H30" s="99" t="s">
-        <v>268</v>
-      </c>
-      <c r="I30" s="99" t="s">
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+    </row>
+    <row r="29" spans="1:23" ht="26.25" thickBot="1">
+      <c r="A29" s="85"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-    </row>
-    <row r="31" spans="1:23" ht="109.5" customHeight="1" thickBot="1">
-      <c r="A31" s="85"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="99" t="s">
-        <v>270</v>
-      </c>
-      <c r="D31" s="99" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="99">
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81"/>
+    </row>
+    <row r="30" spans="1:23" ht="176.25" customHeight="1">
+      <c r="A30" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="154" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="86">
         <v>0</v>
       </c>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99" t="s">
-        <v>272</v>
-      </c>
-      <c r="H31" s="99" t="s">
-        <v>272</v>
-      </c>
-      <c r="I31" s="99" t="s">
+      <c r="F30" s="86"/>
+      <c r="G30" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="I30" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="81"/>
+    </row>
+    <row r="31" spans="1:23" ht="219.75" customHeight="1">
+      <c r="A31" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="149"/>
+      <c r="C31" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="86">
+        <v>0</v>
+      </c>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="H31" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="83"/>
+      <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
       <c r="M31" s="81"/>
@@ -10158,24 +10588,26 @@
       <c r="V31" s="81"/>
       <c r="W31" s="81"/>
     </row>
-    <row r="32" spans="1:23" ht="26.25" thickBot="1">
-      <c r="A32" s="85"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="I32" s="99" t="s">
+    <row r="32" spans="1:23" ht="25.5">
+      <c r="A32" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" s="149"/>
+      <c r="C32" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="86" t="s">
         <v>11</v>
       </c>
       <c r="J32" s="81"/>
@@ -10193,31 +10625,27 @@
       <c r="V32" s="81"/>
       <c r="W32" s="81"/>
     </row>
-    <row r="33" spans="1:23" ht="176.25" customHeight="1">
+    <row r="33" spans="1:23" ht="190.5" customHeight="1">
       <c r="A33" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="B33" s="113" t="s">
-        <v>171</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B33" s="149"/>
       <c r="C33" s="86" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D33" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="86">
-        <v>0</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E33" s="86"/>
       <c r="F33" s="86"/>
       <c r="G33" s="86" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="I33" s="86" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="J33" s="81"/>
       <c r="K33" s="81"/>
@@ -10234,29 +10662,29 @@
       <c r="V33" s="81"/>
       <c r="W33" s="81"/>
     </row>
-    <row r="34" spans="1:23" ht="219.75" customHeight="1">
+    <row r="34" spans="1:23" ht="183" customHeight="1">
       <c r="A34" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34" s="105"/>
+        <v>247</v>
+      </c>
+      <c r="B34" s="149"/>
       <c r="C34" s="86" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D34" s="86" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E34" s="86">
         <v>0</v>
       </c>
       <c r="F34" s="86"/>
       <c r="G34" s="86" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H34" s="86" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="I34" s="86" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
@@ -10273,24 +10701,26 @@
       <c r="V34" s="81"/>
       <c r="W34" s="81"/>
     </row>
-    <row r="35" spans="1:23" ht="25.5">
+    <row r="35" spans="1:23" ht="152.25" customHeight="1">
       <c r="A35" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="B35" s="105"/>
+        <v>248</v>
+      </c>
+      <c r="B35" s="150"/>
       <c r="C35" s="86" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D35" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" s="86"/>
+        <v>187</v>
+      </c>
+      <c r="E35" s="86">
+        <v>0</v>
+      </c>
       <c r="F35" s="86"/>
       <c r="G35" s="86" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H35" s="86" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I35" s="86" t="s">
         <v>11</v>
@@ -10310,27 +10740,17 @@
       <c r="V35" s="81"/>
       <c r="W35" s="81"/>
     </row>
-    <row r="36" spans="1:23" ht="190.5" customHeight="1">
-      <c r="A36" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="B36" s="105"/>
-      <c r="C36" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="86" t="s">
-        <v>183</v>
-      </c>
+    <row r="36" spans="1:23">
+      <c r="A36" s="85"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="86"/>
       <c r="F36" s="86"/>
-      <c r="G36" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="H36" s="86" t="s">
-        <v>184</v>
-      </c>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
       <c r="I36" s="86" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="J36" s="81"/>
       <c r="K36" s="81"/>
@@ -10347,30 +10767,16 @@
       <c r="V36" s="81"/>
       <c r="W36" s="81"/>
     </row>
-    <row r="37" spans="1:23" ht="183" customHeight="1">
-      <c r="A37" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="86">
-        <v>0</v>
-      </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="H37" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="I37" s="86" t="s">
-        <v>103</v>
-      </c>
+    <row r="37" spans="1:23">
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
@@ -10386,30 +10792,16 @@
       <c r="V37" s="81"/>
       <c r="W37" s="81"/>
     </row>
-    <row r="38" spans="1:23" ht="152.25" customHeight="1">
-      <c r="A38" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="B38" s="106"/>
-      <c r="C38" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" s="86">
-        <v>0</v>
-      </c>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="H38" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="I38" s="86" t="s">
-        <v>11</v>
-      </c>
+    <row r="38" spans="1:23">
+      <c r="A38" s="80"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
       <c r="J38" s="81"/>
       <c r="K38" s="81"/>
       <c r="L38" s="81"/>
@@ -10426,17 +10818,15 @@
       <c r="W38" s="81"/>
     </row>
     <row r="39" spans="1:23">
-      <c r="A39" s="85"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86" t="s">
-        <v>191</v>
-      </c>
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
       <c r="J39" s="81"/>
       <c r="K39" s="81"/>
       <c r="L39" s="81"/>
@@ -11803,96 +12193,19 @@
       <c r="W93" s="81"/>
     </row>
     <row r="94" spans="1:23">
-      <c r="A94" s="80"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="81"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="81"/>
-      <c r="F94" s="81"/>
-      <c r="G94" s="81"/>
-      <c r="H94" s="81"/>
-      <c r="I94" s="81"/>
       <c r="J94" s="81"/>
-      <c r="K94" s="81"/>
-      <c r="L94" s="81"/>
-      <c r="M94" s="81"/>
-      <c r="N94" s="81"/>
-      <c r="O94" s="81"/>
-      <c r="P94" s="81"/>
-      <c r="Q94" s="81"/>
-      <c r="R94" s="81"/>
-      <c r="S94" s="81"/>
-      <c r="T94" s="81"/>
-      <c r="U94" s="81"/>
-      <c r="V94" s="81"/>
-      <c r="W94" s="81"/>
-    </row>
-    <row r="95" spans="1:23">
-      <c r="A95" s="80"/>
-      <c r="B95" s="81"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="81"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="81"/>
-      <c r="H95" s="81"/>
-      <c r="I95" s="81"/>
-      <c r="J95" s="81"/>
-      <c r="K95" s="81"/>
-      <c r="L95" s="81"/>
-      <c r="M95" s="81"/>
-      <c r="N95" s="81"/>
-      <c r="O95" s="81"/>
-      <c r="P95" s="81"/>
-      <c r="Q95" s="81"/>
-      <c r="R95" s="81"/>
-      <c r="S95" s="81"/>
-      <c r="T95" s="81"/>
-      <c r="U95" s="81"/>
-      <c r="V95" s="81"/>
-      <c r="W95" s="81"/>
-    </row>
-    <row r="96" spans="1:23">
-      <c r="A96" s="80"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="81"/>
-      <c r="D96" s="81"/>
-      <c r="E96" s="81"/>
-      <c r="F96" s="81"/>
-      <c r="G96" s="81"/>
-      <c r="H96" s="81"/>
-      <c r="I96" s="81"/>
-      <c r="J96" s="81"/>
-      <c r="K96" s="81"/>
-      <c r="L96" s="81"/>
-      <c r="M96" s="81"/>
-      <c r="N96" s="81"/>
-      <c r="O96" s="81"/>
-      <c r="P96" s="81"/>
-      <c r="Q96" s="81"/>
-      <c r="R96" s="81"/>
-      <c r="S96" s="81"/>
-      <c r="T96" s="81"/>
-      <c r="U96" s="81"/>
-      <c r="V96" s="81"/>
-      <c r="W96" s="81"/>
-    </row>
-    <row r="97" spans="10:10">
-      <c r="J97" s="81"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I27"/>
-  <mergeCells count="5">
+  <autoFilter ref="A1:I24"/>
+  <mergeCells count="3">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B30:B35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E24" r:id="rId2" display="han123@gmail.com"/>
-    <hyperlink ref="E23" r:id="rId3"/>
+    <hyperlink ref="E21" r:id="rId2" display="han123@gmail.com"/>
+    <hyperlink ref="E20" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -11907,13 +12220,14 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="12.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="12" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" style="12" customWidth="1"/>
     <col min="5" max="5" width="51" style="12" customWidth="1"/>
@@ -11925,17 +12239,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1">
-      <c r="A1" s="151" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
+      <c r="A1" s="158" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -11955,15 +12269,15 @@
       <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" ht="12.75">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -11983,15 +12297,23 @@
       <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="1:26" ht="18.75">
-      <c r="A3" s="128"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="140" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="140" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="140" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="110"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -12010,20 +12332,20 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="130"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="153" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="130" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="131"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
+    <row r="4" spans="1:26" ht="110.25">
+      <c r="A4" s="138" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -12042,20 +12364,22 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="133"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135" t="s">
-        <v>283</v>
-      </c>
+    <row r="5" spans="1:26" ht="47.25">
+      <c r="A5" s="139" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="136" t="s">
-        <v>286</v>
-      </c>
-      <c r="F5" s="135"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
+        <v>274</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -12074,20 +12398,24 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="138"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="140" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="141" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
+    <row r="6" spans="1:26" ht="204.75">
+      <c r="A6" s="132" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="141" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="131" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="118"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -12107,15 +12435,15 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="138"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -12135,15 +12463,15 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="138"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -12163,15 +12491,15 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A9" s="138"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -12191,15 +12519,15 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A10" s="138"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -12219,15 +12547,15 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="138"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -12247,15 +12575,15 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A12" s="138"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -12275,15 +12603,15 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="138"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -12303,15 +12631,15 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="138"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -12331,15 +12659,15 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="33" customHeight="1">
-      <c r="A15" s="138"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -12359,15 +12687,15 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" ht="18" customHeight="1">
-      <c r="A16" s="138"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -12387,15 +12715,15 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" ht="21" customHeight="1">
-      <c r="A17" s="138"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -12415,15 +12743,15 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="147"/>
-      <c r="B18" s="147"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -12443,15 +12771,15 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="147"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -12471,15 +12799,15 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A20" s="119"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="121"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="125"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="109"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -12839,7 +13167,7 @@
       <c r="B33" s="39"/>
       <c r="C33" s="40"/>
       <c r="D33" s="41"/>
-      <c r="E33" s="116"/>
+      <c r="E33" s="155"/>
       <c r="F33" s="19"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -12867,7 +13195,7 @@
       <c r="B34" s="39"/>
       <c r="C34" s="40"/>
       <c r="D34" s="41"/>
-      <c r="E34" s="117"/>
+      <c r="E34" s="156"/>
       <c r="F34" s="19"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -12895,7 +13223,7 @@
       <c r="B35" s="39"/>
       <c r="C35" s="40"/>
       <c r="D35" s="41"/>
-      <c r="E35" s="118"/>
+      <c r="E35" s="157"/>
       <c r="F35" s="19"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -39995,11 +40323,10 @@
       <c r="Z1002" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:D5">
@@ -40058,6 +40385,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -40723,15 +41051,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007378C5146D8BF94D8F30B4EA7D16C2F9" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60c73220e376605b601c5dc61c408d9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4b68869-af4a-45a3-aa3d-a3b0936e1b4e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="26da439020ceb541f1ea4629990d63ca" ns2:_="">
     <xsd:import namespace="d4b68869-af4a-45a3-aa3d-a3b0936e1b4e"/>
@@ -40869,7 +41188,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ReferenceId xmlns="d4b68869-af4a-45a3-aa3d-a3b0936e1b4e" xsi:nil="true"/>
@@ -40877,15 +41196,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B3FB03-63B6-4DD3-AE27-4EF411488525}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADC747D5-EC3C-42F4-A09F-8CC31673D34F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40903,18 +41223,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39DF521B-0835-4ECB-A0BA-E4DFF902D69E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d4b68869-af4a-45a3-aa3d-a3b0936e1b4e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d4b68869-af4a-45a3-aa3d-a3b0936e1b4e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B3FB03-63B6-4DD3-AE27-4EF411488525}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>